--- a/ExcelReadWrite/테스트문서/테스트문서.xlsx
+++ b/ExcelReadWrite/테스트문서/테스트문서.xlsx
@@ -78,12 +78,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>생년월일</t>
+    <t>.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일  (셀서식: 날짜)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -491,7 +491,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -515,7 +515,7 @@
         <v>10033</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
